--- a/computers.xlsx
+++ b/computers.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>PANKAJ COMPUTERS, ANUPGARH</t>
   </si>
@@ -47,6 +47,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>sonu</t>
+  </si>
+  <si>
+    <t>komal</t>
+  </si>
+  <si>
+    <t>dheeraj kumar</t>
+  </si>
+  <si>
+    <t>geet</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>pawan</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>ravi kumar</t>
+  </si>
+  <si>
+    <t>rajesh</t>
+  </si>
+  <si>
+    <t>monika</t>
+  </si>
+  <si>
+    <t>vicky</t>
+  </si>
+  <si>
+    <t>raju kumar</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
     <t>don</t>
   </si>
   <si>
@@ -59,7 +98,16 @@
     <t>kala singh</t>
   </si>
   <si>
+    <t>ram singh</t>
+  </si>
+  <si>
     <t>sukha</t>
+  </si>
+  <si>
+    <t>sunil</t>
+  </si>
+  <si>
+    <t>sonal</t>
   </si>
 </sst>
 </file>
@@ -83,22 +131,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,177 +455,670 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="D1" t="s">
+    <row r="1" spans="1:26">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="D2" t="s">
+    <row r="2" spans="1:26">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
       <c r="C4">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>65</v>
-      </c>
-      <c r="H4">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
         <v>11</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
       </c>
       <c r="C5">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>65</v>
-      </c>
-      <c r="H5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
         <v>12</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
       </c>
       <c r="C6">
         <v>87</v>
       </c>
       <c r="D6">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>69</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>56</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>69</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>78</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>56</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>52</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="Z14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>56</v>
+      </c>
+      <c r="Z15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>74</v>
+      </c>
+      <c r="G16">
+        <v>52</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="Z17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>52</v>
+      </c>
+      <c r="Z18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>56</v>
+      </c>
+      <c r="Z19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>65</v>
+      </c>
+      <c r="E20">
         <v>77</v>
       </c>
-      <c r="G6">
-        <v>65</v>
-      </c>
-      <c r="H6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="F20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>76</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>76</v>
+      </c>
+      <c r="Z21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>76</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>65</v>
+      </c>
+      <c r="Z23">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>84</v>
-      </c>
-      <c r="D7">
-        <v>76</v>
-      </c>
-      <c r="E7">
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>54</v>
+      </c>
+      <c r="Z24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>43</v>
+      </c>
+      <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
         <v>45</v>
       </c>
-      <c r="F7">
+      <c r="F26">
         <v>43</v>
       </c>
-      <c r="G7">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>98</v>
-      </c>
-      <c r="D8">
-        <v>78</v>
-      </c>
-      <c r="E8">
+      <c r="G26">
+        <v>44</v>
+      </c>
+      <c r="Z26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="G27">
         <v>67</v>
       </c>
-      <c r="F8">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>43</v>
-      </c>
-      <c r="H8">
-        <v>56</v>
+      <c r="Z27">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -585,5 +1127,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/computers.xlsx
+++ b/computers.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>PANKAJ COMPUTERS, ANUPGARH</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>punjabi</t>
+  </si>
+  <si>
+    <t>gk</t>
   </si>
   <si>
     <t>total</t>
@@ -398,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,17 +409,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -441,13 +444,16 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>87</v>
@@ -467,13 +473,21 @@
       <c r="H4">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="str">
+        <f>SUM(C4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <f>if((I4/6)&gt;36,"Pass","Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>87</v>
@@ -493,13 +507,21 @@
       <c r="H5">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="str">
+        <f>SUM(C5:H5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="str">
+        <f>if((I5/6)&gt;36,"Pass","Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>87</v>
@@ -519,13 +541,21 @@
       <c r="H6">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="str">
+        <f>SUM(C6:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
+        <f>if((I6/6)&gt;36,"Pass","Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>84</v>
@@ -545,13 +575,21 @@
       <c r="H7">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="str">
+        <f>SUM(C7:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <f>if((I7/6)&gt;36,"Pass","Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>98</v>
@@ -570,6 +608,14 @@
       </c>
       <c r="H8">
         <v>56</v>
+      </c>
+      <c r="I8" t="str">
+        <f>SUM(C8:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <f>if((I8/6)&gt;36,"Pass","Fail")</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/computers.xlsx
+++ b/computers.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>PANKAJ COMPUTERS, ANUPGARH</t>
   </si>
@@ -50,6 +50,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>sonu</t>
+  </si>
+  <si>
+    <t>komal</t>
+  </si>
+  <si>
+    <t>dheeraj kumar</t>
+  </si>
+  <si>
+    <t>geet</t>
+  </si>
+  <si>
+    <t>ravi</t>
+  </si>
+  <si>
+    <t>pawan</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>ravi kumar</t>
+  </si>
+  <si>
+    <t>rajesh</t>
+  </si>
+  <si>
+    <t>monika</t>
+  </si>
+  <si>
+    <t>vicky</t>
+  </si>
+  <si>
+    <t>raju kumar</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
     <t>don</t>
   </si>
   <si>
@@ -62,7 +101,16 @@
     <t>kala singh</t>
   </si>
   <si>
+    <t>ram singh</t>
+  </si>
+  <si>
     <t>sukha</t>
+  </si>
+  <si>
+    <t>sunil</t>
+  </si>
+  <si>
+    <t>sonal</t>
   </si>
 </sst>
 </file>
@@ -86,22 +134,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,11 +446,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,220 +458,865 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="D1" t="s">
+    <row r="1" spans="1:26">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="D2" t="s">
+    <row r="2" spans="1:26">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
+      <c r="B4">
+        <v>55</v>
+      </c>
       <c r="C4">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F4">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <f>SUM(C4:H4)</f>
+        <v>313</v>
       </c>
       <c r="I4" t="str">
-        <f>SUM(C4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
         <f>if((I4/6)&gt;36,"Pass","Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
+        <v>Fail</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
         <v>12</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
       </c>
       <c r="C5">
         <v>87</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <f>SUM(C5:H5)</f>
+        <v>333</v>
       </c>
       <c r="I5" t="str">
-        <f>SUM(C5:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
         <f>if((I5/6)&gt;36,"Pass","Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+        <v>Fail</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
         <v>13</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
       </c>
       <c r="C6">
         <v>87</v>
       </c>
       <c r="D6">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>69</v>
+      </c>
+      <c r="H6">
+        <f>SUM(C6:H6)</f>
+        <v>355</v>
+      </c>
+      <c r="I6" t="str">
+        <f>if((I6/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <f>SUM(C7:H7)</f>
+        <v>278</v>
+      </c>
+      <c r="I7" t="str">
+        <f>if((I7/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>56</v>
+      </c>
+      <c r="H8">
+        <f>SUM(C8:H8)</f>
+        <v>310</v>
+      </c>
+      <c r="I8" t="str">
+        <f>if((I8/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>69</v>
+      </c>
+      <c r="H9">
+        <f>SUM(C9:H9)</f>
+        <v>304</v>
+      </c>
+      <c r="I9" t="str">
+        <f>if((I9/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>78</v>
+      </c>
+      <c r="H10">
+        <f>SUM(C10:H10)</f>
+        <v>298</v>
+      </c>
+      <c r="I10" t="str">
+        <f>if((I10/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <f>SUM(C11:H11)</f>
+        <v>248</v>
+      </c>
+      <c r="I11" t="str">
+        <f>if((I11/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>52</v>
+      </c>
+      <c r="H12">
+        <f>SUM(C12:H12)</f>
+        <v>274</v>
+      </c>
+      <c r="I12" t="str">
+        <f>if((I12/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <f>SUM(C13:H13)</f>
+        <v>256</v>
+      </c>
+      <c r="I13" t="str">
+        <f>if((I13/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <f>SUM(C14:H14)</f>
+        <v>334</v>
+      </c>
+      <c r="I14" t="str">
+        <f>if((I14/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <f>SUM(C15:H15)</f>
+        <v>235</v>
+      </c>
+      <c r="I15" t="str">
+        <f>if((I15/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>74</v>
+      </c>
+      <c r="G16">
+        <v>52</v>
+      </c>
+      <c r="H16">
+        <f>SUM(C16:H16)</f>
+        <v>276</v>
+      </c>
+      <c r="I16" t="str">
+        <f>if((I16/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <f>SUM(C17:H17)</f>
+        <v>260</v>
+      </c>
+      <c r="I17" t="str">
+        <f>if((I17/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>52</v>
+      </c>
+      <c r="H18">
+        <f>SUM(C18:H18)</f>
+        <v>253</v>
+      </c>
+      <c r="I18" t="str">
+        <f>if((I18/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <v>56</v>
+      </c>
+      <c r="H19">
+        <f>SUM(C19:H19)</f>
+        <v>248</v>
+      </c>
+      <c r="I19" t="str">
+        <f>if((I19/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>87</v>
+      </c>
+      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>65</v>
+      </c>
+      <c r="E20">
         <v>77</v>
       </c>
-      <c r="G6">
-        <v>65</v>
-      </c>
-      <c r="H6">
-        <v>76</v>
-      </c>
-      <c r="I6" t="str">
-        <f>SUM(C6:H6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f>if((I6/6)&gt;36,"Pass","Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="F20">
+        <v>65</v>
+      </c>
+      <c r="G20">
+        <v>76</v>
+      </c>
+      <c r="H20">
+        <f>SUM(C20:H20)</f>
+        <v>359</v>
+      </c>
+      <c r="I20" t="str">
+        <f>if((I20/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>87</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>65</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="F21">
+        <v>65</v>
+      </c>
+      <c r="G21">
+        <v>76</v>
+      </c>
+      <c r="H21">
+        <f>SUM(C21:H21)</f>
+        <v>359</v>
+      </c>
+      <c r="I21" t="str">
+        <f>if((I21/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>87</v>
+      </c>
+      <c r="C22">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>65</v>
+      </c>
+      <c r="E22">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>65</v>
+      </c>
+      <c r="G22">
+        <v>76</v>
+      </c>
+      <c r="H22">
+        <f>SUM(C22:H22)</f>
+        <v>359</v>
+      </c>
+      <c r="I22" t="str">
+        <f>if((I22/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <f>SUM(C23:H23)</f>
+        <v>263</v>
+      </c>
+      <c r="I23" t="str">
+        <f>if((I23/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z23">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>84</v>
-      </c>
-      <c r="D7">
-        <v>76</v>
-      </c>
-      <c r="E7">
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>54</v>
+      </c>
+      <c r="H24">
+        <f>SUM(C24:H24)</f>
+        <v>296</v>
+      </c>
+      <c r="I24" t="str">
+        <f>if((I24/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>43</v>
+      </c>
+      <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <f>SUM(C25:H25)</f>
+        <v>300</v>
+      </c>
+      <c r="I25" t="str">
+        <f>if((I25/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>65</v>
+      </c>
+      <c r="E26">
         <v>45</v>
       </c>
-      <c r="F7">
+      <c r="F26">
         <v>43</v>
       </c>
-      <c r="G7">
-        <v>34</v>
-      </c>
-      <c r="H7">
-        <v>65</v>
-      </c>
-      <c r="I7" t="str">
-        <f>SUM(C7:H7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <f>if((I7/6)&gt;36,"Pass","Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>98</v>
-      </c>
-      <c r="D8">
-        <v>78</v>
-      </c>
-      <c r="E8">
+      <c r="G26">
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <f>SUM(C26:H26)</f>
+        <v>262</v>
+      </c>
+      <c r="I26" t="str">
+        <f>if((I26/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="G27">
         <v>67</v>
       </c>
-      <c r="F8">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>43</v>
-      </c>
-      <c r="H8">
-        <v>56</v>
-      </c>
-      <c r="I8" t="str">
-        <f>SUM(C8:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <f>if((I8/6)&gt;36,"Pass","Fail")</f>
-        <v>0</v>
+      <c r="H27">
+        <f>SUM(C27:H27)</f>
+        <v>331</v>
+      </c>
+      <c r="I27" t="str">
+        <f>if((I27/6)&gt;36,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="Z27">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -631,5 +1325,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>